--- a/nmadb/480679.xlsx
+++ b/nmadb/480679.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Treatments</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Study id</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Harmful</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rosler et al., 1999 </t>
-  </si>
-  <si>
-    <t>WMD</t>
   </si>
   <si>
     <t>Jones 2004</t>
@@ -197,11 +191,20 @@
   <si>
     <t>Not included in analysis?</t>
   </si>
+  <si>
+    <t>effect=WMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -448,12 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -462,18 +459,24 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,7 +493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,7 +567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -599,7 +601,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,15 +776,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="4" customWidth="1"/>
@@ -804,40 +805,40 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -845,7 +846,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -866,7 +867,10 @@
       <c r="I2" s="10">
         <v>-1.24</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>0.67680133277800913</v>
+      </c>
       <c r="K2" s="12"/>
       <c r="N2" s="6" t="s">
         <v>0</v>
@@ -875,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -883,7 +887,7 @@
         <v>1998</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -904,7 +908,10 @@
       <c r="I3" s="10">
         <v>-1.04</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>0.76009995835068722</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="M3" s="1"/>
       <c r="N3" s="7"/>
@@ -912,14 +919,16 @@
         <v>2</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
       <c r="E4" s="5">
         <v>2</v>
       </c>
@@ -935,7 +944,10 @@
       <c r="I4" s="10">
         <v>-1.64</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J24" si="0">(I4-H4)/(1.96^2)</f>
+        <v>0.76009995835068722</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="M4" s="1"/>
       <c r="N4" s="7"/>
@@ -943,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -951,7 +963,7 @@
         <v>1998</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -972,7 +984,10 @@
       <c r="I5" s="10">
         <v>-0.8</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.87984173261141196</v>
+      </c>
       <c r="K5" s="12"/>
       <c r="M5" s="1"/>
       <c r="N5" s="8"/>
@@ -980,14 +995,16 @@
         <v>4</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="12"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
       <c r="E6" s="5">
         <v>2</v>
       </c>
@@ -1003,7 +1020,10 @@
       <c r="I6" s="10">
         <v>-1.19</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.87984173261141208</v>
+      </c>
       <c r="K6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="23"/>
@@ -1013,7 +1033,7 @@
         <v>1996</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -1034,20 +1054,23 @@
       <c r="I7" s="10">
         <v>-0.68</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3119533527696794</v>
+      </c>
       <c r="K7" s="12"/>
-      <c r="N7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="N7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="12">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -1068,18 +1091,21 @@
       <c r="I8" s="10">
         <v>-0.33</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.97355268638067483</v>
+      </c>
       <c r="K8" s="12"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="12">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -1100,18 +1126,23 @@
       <c r="I9" s="10">
         <v>-1.65</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5987088713036236</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="12"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
@@ -1127,7 +1158,10 @@
       <c r="I10" s="10">
         <v>-1.4</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.57267805081216172</v>
+      </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:16">
@@ -1135,7 +1169,7 @@
         <v>2000</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -1156,15 +1190,21 @@
       <c r="I11" s="10">
         <v>-2.77</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.58829654310703883</v>
+      </c>
       <c r="K11" s="12"/>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12">
         <v>2001</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -1185,7 +1225,10 @@
       <c r="I12" s="10">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.57267805081216172</v>
+      </c>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:16">
@@ -1193,7 +1236,7 @@
         <v>2006</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -1214,7 +1257,10 @@
       <c r="I13" s="10">
         <v>-0.08</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0776759683465222</v>
+      </c>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:16">
@@ -1222,7 +1268,7 @@
         <v>2000</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -1243,14 +1289,19 @@
       <c r="I14" s="10">
         <v>-1.82</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66638900458142436</v>
+      </c>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="12"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
       <c r="E15" s="5">
         <v>3</v>
       </c>
@@ -1266,7 +1317,10 @@
       <c r="I15" s="10">
         <v>-1.78</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.68721366097459391</v>
+      </c>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:16">
@@ -1274,7 +1328,7 @@
         <v>2000</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
@@ -1295,7 +1349,10 @@
       <c r="I16" s="10">
         <v>-1.8</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.57267805081216172</v>
+      </c>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
@@ -1303,7 +1360,7 @@
         <v>2001</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -1324,14 +1381,19 @@
       <c r="I17" s="10">
         <v>0.67</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2338608912952937</v>
+      </c>
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>12</v>
+      </c>
       <c r="E18" s="5">
         <v>3</v>
       </c>
@@ -1347,7 +1409,10 @@
       <c r="I18" s="10">
         <v>-0.39</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>1.358808829654311</v>
+      </c>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
@@ -1355,7 +1420,7 @@
         <v>1998</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
@@ -1376,7 +1441,10 @@
       <c r="I19" s="10">
         <v>-2.64</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.59350270720533116</v>
+      </c>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
@@ -1384,7 +1452,7 @@
         <v>1999</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -1405,22 +1473,28 @@
       <c r="I20" s="10">
         <v>-1.17</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.57788421491045405</v>
+      </c>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
@@ -1428,7 +1502,7 @@
         <v>2004</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -1449,7 +1523,10 @@
       <c r="I22" s="10">
         <v>-0.33</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0776759683465222</v>
+      </c>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
@@ -1457,7 +1534,7 @@
         <v>2003</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -1478,7 +1555,10 @@
       <c r="I23" s="10">
         <v>3.39</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1349437734277386</v>
+      </c>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
@@ -1486,7 +1566,7 @@
         <v>2002</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -1507,7 +1587,10 @@
       <c r="I24" s="10">
         <v>1.86</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.89025406080799674</v>
+      </c>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
@@ -2397,12 +2480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2414,12 +2497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
